--- a/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Learn\软件需求分析\需求优先级打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76178B-1BEA-4E51-BDC2-B6B3AAA4FBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99795F50-0360-455D-8DC6-3DBE0DA5F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3795" windowWidth="27045" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,63 +32,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>优先级打分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  账号注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帖子审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  评论管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  资源管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  查看举报信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  手机绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  邮箱绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  查看个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改头像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改学号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改手机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  修改邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  设置密保</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  第三方账户绑定</t>
+  </si>
   <si>
     <t>特性</t>
-  </si>
-  <si>
-    <t>优先级打分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  用户登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  账号注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  修改密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 帖子审核</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  评论管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  资源管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  用户管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  查看举报信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  手机绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  邮箱绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  查看个人信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  修改头像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  修改学号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  修改手机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  修改邮箱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  设置密保</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  第三方账户绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 帖子删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-绑定管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-密码管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-用户增删</t>
   </si>
 </sst>
 </file>
@@ -434,7 +444,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,172 +455,190 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.0045613908266167</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.0273920174958995</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3">
+        <v>0.82985506198720504</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.84871514488791688</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4">
+        <v>0.82985506198720504</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.84871514488791688</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.70560293641368887</v>
+      <c r="B5">
+        <v>0.69027913567905441</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1.0372627436043926</v>
+        <v>0.5585511387511557</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.72608392052307491</v>
+        <v>1.0155475250021011</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.67003827227993451</v>
+        <v>0.71088326750147079</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.50996302876074329</v>
+        <v>0.65514873314779343</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.74533058049647094</v>
+        <v>0.91119768757069253</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.58841887933931913</v>
+        <v>0.81243802000168086</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.82981019488351415</v>
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.49813546423135469</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>0.82981019488351415</v>
+        <v>0.72804414003044149</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0.76202690295407838</v>
+        <v>0.57477168949771695</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>0.49957006095580231</v>
+        <v>0.81243802000168086</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>0.43421719163919315</v>
+        <v>0.81243802000168086</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>0.41490509744175708</v>
+        <v>0.74712212840775161</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>0.46965410076078068</v>
+        <v>0.48866198251023613</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.42478716041787967</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.40621901000084043</v>
+      </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>0.46101791909581896</v>
+      </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">

--- a/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99795F50-0360-455D-8DC6-3DBE0DA5F1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66B207-C753-4A96-8E7E-22C52CBA75A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3795" windowWidth="27045" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14145" yWindow="2940" windowWidth="27045" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>优先级打分</t>
   </si>
   <si>
     <t xml:space="preserve">  用户登录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  账号注册</t>
   </si>
   <si>
     <t xml:space="preserve">  修改密码</t>
@@ -99,6 +96,18 @@
   </si>
   <si>
     <t xml:space="preserve">  用户管理-用户增删</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户管理-黑名单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  论坛版块管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  帖子标签管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  课程学生增删</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -466,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0045613908266167</v>
+        <v>1.0006858146105944</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -475,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.82985506198720504</v>
+        <v>0.82665349902614316</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -484,25 +493,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.82985506198720504</v>
+        <v>0.687737767037087</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>0.69027913567905441</v>
+        <v>0.55664747999438435</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5585511387511557</v>
+        <v>1.0120863272625169</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -511,16 +520,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.0155475250021011</v>
+        <v>0.70846042908376183</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.71088326750147079</v>
+        <v>0.65262118344169195</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -529,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>0.65514873314779343</v>
+        <v>0.90844868735083539</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -538,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.91119768757069253</v>
+        <v>0.80966906181001363</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -547,107 +556,125 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>0.81243802000168086</v>
+        <v>0.66966520760908244</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.49813546423135469</v>
+        <v>0.49604473015628603</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.72804414003044149</v>
+        <v>0.68040543439237899</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.57477168949771695</v>
+        <v>0.83130370365193573</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.81243802000168086</v>
+        <v>0.7287021556290123</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>0.81243802000168086</v>
+        <v>0.72498845176687954</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>0.74712212840775161</v>
+        <v>0.57235930402648394</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>0.48866198251023613</v>
+        <v>0.80966906181001363</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>0.42478716041787967</v>
+        <v>0.80966906181001363</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>0.40621901000084043</v>
+        <v>0.74493537298141488</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>0.46101791909581896</v>
+        <v>0.48684281208512076</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.42322324125359201</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.40483453090500682</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.45985759926643144</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">

--- a/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
+++ b/需求优先级打分/SRA2023-G17-管理员优先级排序(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\时蒙恩\Desktop\计算机系统原理实验\软件工程\Request\需求优先级打分\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\文档\GitHub\Request\需求优先级打分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA66B207-C753-4A96-8E7E-22C52CBA75A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B281A3-A9B6-41CA-916E-BBC8B9EB21C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14145" yWindow="2940" windowWidth="27045" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>优先级打分</t>
   </si>
@@ -108,6 +108,11 @@
   </si>
   <si>
     <t xml:space="preserve">  课程学生增删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  课程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,43 +594,43 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.7287021556290123</v>
+        <v>0.72870215562901197</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.72498845176687954</v>
+        <v>0.72870215562901197</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>0.57235930402648394</v>
+        <v>0.72498845176687954</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0.80966906181001363</v>
+        <v>0.57235930402648394</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.80966906181001363</v>
@@ -634,50 +639,56 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>0.74493537298141488</v>
+        <v>0.80966906181001363</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>0.48684281208512076</v>
+        <v>0.74493537298141488</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>0.42322324125359201</v>
+        <v>0.48684281208512076</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>0.40483453090500682</v>
+        <v>0.42322324125359201</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0.40483453090500682</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.45985759926643144</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,9 +742,12 @@
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
     </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
-    <sortCondition descending="1" ref="B2:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B28">
+    <sortCondition descending="1" ref="B2:B28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
